--- a/Excel/3장(연습).xlsx
+++ b/Excel/3장(연습).xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\20250176\Computer_Utilization_Practice\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA813495-42A3-4093-A6DD-29E7F2D4B3A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF289035-B47D-4DFD-A765-DE105606E889}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="판매" sheetId="1" r:id="rId1"/>
     <sheet name="가격" sheetId="4" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="환율">가격!$J$3</definedName>
+  </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -418,9 +421,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -567,7 +571,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -604,6 +608,9 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -628,7 +635,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -914,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -943,32 +950,32 @@
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="15" t="s">
         <v>49</v>
       </c>
       <c r="L2" s="4" t="s">
@@ -980,24 +987,24 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="15"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="16"/>
       <c r="L3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3" s="12">
         <f>AVERAGE(F4:F21)</f>
         <v>73.222222222222229</v>
       </c>
@@ -1023,7 +1030,7 @@
         <v>48</v>
       </c>
       <c r="G4" s="10">
-        <f>F4/2</f>
+        <f t="shared" ref="G4:G21" si="0">F4/2</f>
         <v>24</v>
       </c>
       <c r="H4" s="10" t="b">
@@ -1031,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="10">
-        <f t="shared" ref="I4:I21" si="0">F4-C4</f>
+        <f>F4-C4</f>
         <v>-2</v>
       </c>
       <c r="J4" s="10" t="b">
@@ -1067,19 +1074,19 @@
         <v>39</v>
       </c>
       <c r="G5" s="10">
-        <f>F5/2</f>
+        <f t="shared" si="0"/>
         <v>19.5</v>
       </c>
       <c r="H5" s="10" t="b">
-        <f t="shared" ref="H4:H21" si="1">F5&gt;=C5</f>
+        <f t="shared" ref="H5:H21" si="1">F5&gt;=C5</f>
         <v>0</v>
       </c>
       <c r="I5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I5:I21" si="2">F5-C5</f>
         <v>-21</v>
       </c>
       <c r="J5" s="10" t="b">
-        <f t="shared" ref="J5:J21" si="2">F5&gt;$M$3</f>
+        <f t="shared" ref="J5:J21" si="3">F5&gt;$M$3</f>
         <v>0</v>
       </c>
       <c r="L5" s="4" t="s">
@@ -1107,11 +1114,11 @@
         <v>48</v>
       </c>
       <c r="F6" s="10">
-        <f t="shared" ref="F5:F21" si="3">D6+E6</f>
+        <f t="shared" ref="F6:F21" si="4">D6+E6</f>
         <v>102</v>
       </c>
       <c r="G6" s="10">
-        <f>F6/2</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="H6" s="10" t="b">
@@ -1119,11 +1126,11 @@
         <v>0</v>
       </c>
       <c r="I6" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-23</v>
       </c>
       <c r="J6" s="10" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L6" s="4" t="s">
@@ -1151,11 +1158,11 @@
         <v>38</v>
       </c>
       <c r="F7" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
       <c r="G7" s="10">
-        <f>F7/2</f>
+        <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
       <c r="H7" s="10" t="b">
@@ -1163,11 +1170,11 @@
         <v>1</v>
       </c>
       <c r="I7" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="J7" s="10" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1188,11 +1195,11 @@
         <v>19</v>
       </c>
       <c r="F8" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="G8" s="10">
-        <f>F8/2</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="H8" s="10" t="b">
@@ -1200,11 +1207,11 @@
         <v>0</v>
       </c>
       <c r="I8" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-8</v>
       </c>
       <c r="J8" s="10" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1225,11 +1232,11 @@
         <v>9</v>
       </c>
       <c r="F9" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="G9" s="10">
-        <f>F9/2</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H9" s="10" t="b">
@@ -1237,11 +1244,11 @@
         <v>1</v>
       </c>
       <c r="I9" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J9" s="10" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1262,11 +1269,11 @@
         <v>30</v>
       </c>
       <c r="F10" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="G10" s="10">
-        <f>F10/2</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="H10" s="10" t="b">
@@ -1274,11 +1281,11 @@
         <v>1</v>
       </c>
       <c r="I10" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="J10" s="10" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1299,11 +1306,11 @@
         <v>12</v>
       </c>
       <c r="F11" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="G11" s="10">
-        <f>F11/2</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="H11" s="10" t="b">
@@ -1311,11 +1318,11 @@
         <v>0</v>
       </c>
       <c r="I11" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-22</v>
       </c>
       <c r="J11" s="10" t="b">
-        <f>F11&gt;$M$3</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1336,11 +1343,11 @@
         <v>15</v>
       </c>
       <c r="F12" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="G12" s="10">
-        <f>F12/2</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="H12" s="10" t="b">
@@ -1348,11 +1355,11 @@
         <v>1</v>
       </c>
       <c r="I12" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J12" s="10" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1373,11 +1380,11 @@
         <v>85</v>
       </c>
       <c r="F13" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>166</v>
       </c>
       <c r="G13" s="10">
-        <f>F13/2</f>
+        <f t="shared" si="0"/>
         <v>83</v>
       </c>
       <c r="H13" s="10" t="b">
@@ -1385,11 +1392,11 @@
         <v>0</v>
       </c>
       <c r="I13" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-34</v>
       </c>
       <c r="J13" s="10" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -1410,11 +1417,11 @@
         <v>50</v>
       </c>
       <c r="F14" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>114</v>
       </c>
       <c r="G14" s="10">
-        <f>F14/2</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="H14" s="10" t="b">
@@ -1422,11 +1429,11 @@
         <v>0</v>
       </c>
       <c r="I14" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-36</v>
       </c>
       <c r="J14" s="10" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -1447,11 +1454,11 @@
         <v>55</v>
       </c>
       <c r="F15" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
       <c r="G15" s="10">
-        <f>F15/2</f>
+        <f t="shared" si="0"/>
         <v>46.5</v>
       </c>
       <c r="H15" s="10" t="b">
@@ -1459,11 +1466,11 @@
         <v>1</v>
       </c>
       <c r="I15" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="J15" s="10" t="b">
-        <f t="shared" si="2"/>
+        <f>F15&gt;$M$3</f>
         <v>1</v>
       </c>
     </row>
@@ -1484,11 +1491,11 @@
         <v>79</v>
       </c>
       <c r="F16" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>147</v>
       </c>
       <c r="G16" s="10">
-        <f>F16/2</f>
+        <f t="shared" si="0"/>
         <v>73.5</v>
       </c>
       <c r="H16" s="10" t="b">
@@ -1496,11 +1503,11 @@
         <v>1</v>
       </c>
       <c r="I16" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="J16" s="10" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -1521,11 +1528,11 @@
         <v>35</v>
       </c>
       <c r="F17" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="G17" s="10">
-        <f>F17/2</f>
+        <f t="shared" si="0"/>
         <v>31.5</v>
       </c>
       <c r="H17" s="10" t="b">
@@ -1533,11 +1540,11 @@
         <v>0</v>
       </c>
       <c r="I17" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-17</v>
       </c>
       <c r="J17" s="10" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1558,11 +1565,11 @@
         <v>45</v>
       </c>
       <c r="F18" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>106</v>
       </c>
       <c r="G18" s="10">
-        <f>F18/2</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="H18" s="10" t="b">
@@ -1570,11 +1577,11 @@
         <v>0</v>
       </c>
       <c r="I18" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-44</v>
       </c>
       <c r="J18" s="10" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -1595,11 +1602,11 @@
         <v>35</v>
       </c>
       <c r="F19" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
       <c r="G19" s="10">
-        <f>F19/2</f>
+        <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
       <c r="H19" s="10" t="b">
@@ -1607,11 +1614,11 @@
         <v>0</v>
       </c>
       <c r="I19" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-27</v>
       </c>
       <c r="J19" s="10" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1632,11 +1639,11 @@
         <v>55</v>
       </c>
       <c r="F20" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>107</v>
       </c>
       <c r="G20" s="10">
-        <f>F20/2</f>
+        <f t="shared" si="0"/>
         <v>53.5</v>
       </c>
       <c r="H20" s="10" t="b">
@@ -1644,11 +1651,11 @@
         <v>1</v>
       </c>
       <c r="I20" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="J20" s="10" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -1669,11 +1676,11 @@
         <v>11</v>
       </c>
       <c r="F21" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="G21" s="10">
-        <f>F21/2</f>
+        <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
       <c r="H21" s="10" t="b">
@@ -1681,11 +1688,11 @@
         <v>1</v>
       </c>
       <c r="I21" s="10">
-        <f t="shared" si="0"/>
+        <f>F21-C21</f>
         <v>1</v>
       </c>
       <c r="J21" s="10" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1715,8 +1722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1742,29 +1749,29 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
       <c r="J2" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="12"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="7" t="s">
         <v>57</v>
       </c>
@@ -1797,13 +1804,16 @@
       <c r="C4" s="9">
         <v>32000</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="21">
+        <f>C4/환율</f>
+        <v>26.666666666666668</v>
+      </c>
       <c r="E4" s="11">
-        <f>$C4*(1-E$3)</f>
+        <f t="shared" ref="E4:H21" si="0">$C4*(1-E$3)</f>
         <v>28800</v>
       </c>
       <c r="F4" s="11">
-        <f t="shared" ref="F4:H19" si="0">$C4*(1-F$3)</f>
+        <f>$C4*(1-F$3)</f>
         <v>25600</v>
       </c>
       <c r="G4" s="11">
@@ -1825,9 +1835,12 @@
       <c r="C5" s="9">
         <v>42000</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="21">
+        <f>C5/환율</f>
+        <v>35</v>
+      </c>
       <c r="E5" s="11">
-        <f t="shared" ref="E5:H21" si="1">$C5*(1-E$3)</f>
+        <f t="shared" si="0"/>
         <v>37800</v>
       </c>
       <c r="F5" s="11">
@@ -1853,9 +1866,12 @@
       <c r="C6" s="9">
         <v>28000</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="21">
+        <f>C6/환율</f>
+        <v>23.333333333333332</v>
+      </c>
       <c r="E6" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>25200</v>
       </c>
       <c r="F6" s="11">
@@ -1881,9 +1897,12 @@
       <c r="C7" s="9">
         <v>21000</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="21">
+        <f>C7/환율</f>
+        <v>17.5</v>
+      </c>
       <c r="E7" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18900</v>
       </c>
       <c r="F7" s="11">
@@ -1909,9 +1928,12 @@
       <c r="C8" s="9">
         <v>35000</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="21">
+        <f>C8/환율</f>
+        <v>29.166666666666668</v>
+      </c>
       <c r="E8" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>31500</v>
       </c>
       <c r="F8" s="11">
@@ -1937,9 +1959,12 @@
       <c r="C9" s="9">
         <v>25000</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="21">
+        <f>C9/환율</f>
+        <v>20.833333333333332</v>
+      </c>
       <c r="E9" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22500</v>
       </c>
       <c r="F9" s="11">
@@ -1965,9 +1990,12 @@
       <c r="C10" s="9">
         <v>29000</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="21">
+        <f>C10/환율</f>
+        <v>24.166666666666668</v>
+      </c>
       <c r="E10" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>26100</v>
       </c>
       <c r="F10" s="11">
@@ -1993,9 +2021,12 @@
       <c r="C11" s="9">
         <v>23000</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="21">
+        <f>C11/환율</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="E11" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20700</v>
       </c>
       <c r="F11" s="11">
@@ -2021,9 +2052,12 @@
       <c r="C12" s="9">
         <v>31000</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="21">
+        <f>C12/환율</f>
+        <v>25.833333333333332</v>
+      </c>
       <c r="E12" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>27900</v>
       </c>
       <c r="F12" s="11">
@@ -2049,9 +2083,12 @@
       <c r="C13" s="9">
         <v>35000</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="21">
+        <f>C13/환율</f>
+        <v>29.166666666666668</v>
+      </c>
       <c r="E13" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>31500</v>
       </c>
       <c r="F13" s="11">
@@ -2077,9 +2114,12 @@
       <c r="C14" s="9">
         <v>19000</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="21">
+        <f>C14/환율</f>
+        <v>15.833333333333334</v>
+      </c>
       <c r="E14" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17100</v>
       </c>
       <c r="F14" s="11">
@@ -2105,9 +2145,12 @@
       <c r="C15" s="9">
         <v>22000</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="21">
+        <f>C15/환율</f>
+        <v>18.333333333333332</v>
+      </c>
       <c r="E15" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19800</v>
       </c>
       <c r="F15" s="11">
@@ -2133,9 +2176,12 @@
       <c r="C16" s="9">
         <v>55000</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="21">
+        <f>C16/환율</f>
+        <v>45.833333333333336</v>
+      </c>
       <c r="E16" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>49500</v>
       </c>
       <c r="F16" s="11">
@@ -2161,9 +2207,12 @@
       <c r="C17" s="9">
         <v>65000</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="21">
+        <f>C17/환율</f>
+        <v>54.166666666666664</v>
+      </c>
       <c r="E17" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>58500</v>
       </c>
       <c r="F17" s="11">
@@ -2189,9 +2238,12 @@
       <c r="C18" s="9">
         <v>78000</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="D18" s="21">
+        <f>C18/환율</f>
+        <v>65</v>
+      </c>
       <c r="E18" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>70200</v>
       </c>
       <c r="F18" s="11">
@@ -2217,9 +2269,12 @@
       <c r="C19" s="9">
         <v>88000</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="21">
+        <f>C19/환율</f>
+        <v>73.333333333333329</v>
+      </c>
       <c r="E19" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>79200</v>
       </c>
       <c r="F19" s="11">
@@ -2245,21 +2300,24 @@
       <c r="C20" s="9">
         <v>38000</v>
       </c>
-      <c r="D20" s="10"/>
+      <c r="D20" s="21">
+        <f>C20/환율</f>
+        <v>31.666666666666668</v>
+      </c>
       <c r="E20" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>34200</v>
       </c>
       <c r="F20" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>30400</v>
       </c>
       <c r="G20" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>26600</v>
       </c>
       <c r="H20" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22800</v>
       </c>
     </row>
@@ -2273,21 +2331,24 @@
       <c r="C21" s="9">
         <v>52000</v>
       </c>
-      <c r="D21" s="10"/>
+      <c r="D21" s="21">
+        <f>C21/환율</f>
+        <v>43.333333333333336</v>
+      </c>
       <c r="E21" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>46800</v>
       </c>
       <c r="F21" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>41600</v>
       </c>
       <c r="G21" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>36400</v>
       </c>
       <c r="H21" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>31200</v>
       </c>
     </row>

--- a/Excel/3장(연습).xlsx
+++ b/Excel/3장(연습).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\20250176\Computer_Utilization_Practice\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF289035-B47D-4DFD-A765-DE105606E889}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430B3CF1-8DD7-4E99-AD5F-6E099496C75F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,9 @@
     <sheet name="가격" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="달러">가격!$D$4:$D$21</definedName>
+    <definedName name="원">가격!$C$4:$C$21</definedName>
+    <definedName name="할인율">가격!$E$3:$H$3</definedName>
     <definedName name="환율">가격!$J$3</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
@@ -421,10 +424,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -605,10 +609,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -635,7 +639,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1004,7 +1008,7 @@
       <c r="L3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="11">
         <f>AVERAGE(F4:F21)</f>
         <v>73.222222222222229</v>
       </c>
@@ -1082,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="10">
-        <f t="shared" ref="I5:I21" si="2">F5-C5</f>
+        <f t="shared" ref="I5:I20" si="2">F5-C5</f>
         <v>-21</v>
       </c>
       <c r="J5" s="10" t="b">
@@ -1723,7 +1727,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1804,25 +1808,25 @@
       <c r="C4" s="9">
         <v>32000</v>
       </c>
-      <c r="D4" s="21">
-        <f>C4/환율</f>
+      <c r="D4" s="12">
+        <f>원/환율</f>
         <v>26.666666666666668</v>
       </c>
-      <c r="E4" s="11">
-        <f t="shared" ref="E4:H21" si="0">$C4*(1-E$3)</f>
-        <v>28800</v>
-      </c>
-      <c r="F4" s="11">
-        <f>$C4*(1-F$3)</f>
-        <v>25600</v>
-      </c>
-      <c r="G4" s="11">
-        <f t="shared" si="0"/>
-        <v>22400</v>
-      </c>
-      <c r="H4" s="11">
-        <f t="shared" si="0"/>
-        <v>19200</v>
+      <c r="E4" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>24</v>
+      </c>
+      <c r="F4" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>21.333333333333336</v>
+      </c>
+      <c r="G4" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>18.666666666666668</v>
+      </c>
+      <c r="H4" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1835,25 +1839,25 @@
       <c r="C5" s="9">
         <v>42000</v>
       </c>
-      <c r="D5" s="21">
-        <f>C5/환율</f>
+      <c r="D5" s="12">
+        <f>원/환율</f>
         <v>35</v>
       </c>
-      <c r="E5" s="11">
-        <f t="shared" si="0"/>
-        <v>37800</v>
-      </c>
-      <c r="F5" s="11">
-        <f t="shared" si="0"/>
-        <v>33600</v>
-      </c>
-      <c r="G5" s="11">
-        <f t="shared" si="0"/>
-        <v>29399.999999999996</v>
-      </c>
-      <c r="H5" s="11">
-        <f t="shared" si="0"/>
-        <v>25200</v>
+      <c r="E5" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>31.5</v>
+      </c>
+      <c r="F5" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>28</v>
+      </c>
+      <c r="G5" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>24.5</v>
+      </c>
+      <c r="H5" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1866,25 +1870,25 @@
       <c r="C6" s="9">
         <v>28000</v>
       </c>
-      <c r="D6" s="21">
-        <f>C6/환율</f>
+      <c r="D6" s="12">
+        <f>원/환율</f>
         <v>23.333333333333332</v>
       </c>
-      <c r="E6" s="11">
-        <f t="shared" si="0"/>
-        <v>25200</v>
-      </c>
-      <c r="F6" s="11">
-        <f t="shared" si="0"/>
-        <v>22400</v>
-      </c>
-      <c r="G6" s="11">
-        <f t="shared" si="0"/>
-        <v>19600</v>
-      </c>
-      <c r="H6" s="11">
-        <f t="shared" si="0"/>
-        <v>16800</v>
+      <c r="E6" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>21</v>
+      </c>
+      <c r="F6" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>18.666666666666668</v>
+      </c>
+      <c r="G6" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>16.333333333333332</v>
+      </c>
+      <c r="H6" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>13.999999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1897,25 +1901,25 @@
       <c r="C7" s="9">
         <v>21000</v>
       </c>
-      <c r="D7" s="21">
-        <f>C7/환율</f>
+      <c r="D7" s="12">
+        <f>원/환율</f>
         <v>17.5</v>
       </c>
-      <c r="E7" s="11">
-        <f t="shared" si="0"/>
-        <v>18900</v>
-      </c>
-      <c r="F7" s="11">
-        <f t="shared" si="0"/>
-        <v>16800</v>
-      </c>
-      <c r="G7" s="11">
-        <f t="shared" si="0"/>
-        <v>14699.999999999998</v>
-      </c>
-      <c r="H7" s="11">
-        <f t="shared" si="0"/>
-        <v>12600</v>
+      <c r="E7" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>15.75</v>
+      </c>
+      <c r="F7" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>14</v>
+      </c>
+      <c r="G7" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>12.25</v>
+      </c>
+      <c r="H7" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>10.5</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1928,25 +1932,25 @@
       <c r="C8" s="9">
         <v>35000</v>
       </c>
-      <c r="D8" s="21">
-        <f>C8/환율</f>
+      <c r="D8" s="12">
+        <f>원/환율</f>
         <v>29.166666666666668</v>
       </c>
-      <c r="E8" s="11">
-        <f t="shared" si="0"/>
-        <v>31500</v>
-      </c>
-      <c r="F8" s="11">
-        <f t="shared" si="0"/>
-        <v>28000</v>
-      </c>
-      <c r="G8" s="11">
-        <f t="shared" si="0"/>
-        <v>24500</v>
-      </c>
-      <c r="H8" s="11">
-        <f t="shared" si="0"/>
-        <v>21000</v>
+      <c r="E8" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>26.25</v>
+      </c>
+      <c r="F8" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>23.333333333333336</v>
+      </c>
+      <c r="G8" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>20.416666666666668</v>
+      </c>
+      <c r="H8" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>17.5</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1959,25 +1963,25 @@
       <c r="C9" s="9">
         <v>25000</v>
       </c>
-      <c r="D9" s="21">
-        <f>C9/환율</f>
+      <c r="D9" s="12">
+        <f>원/환율</f>
         <v>20.833333333333332</v>
       </c>
-      <c r="E9" s="11">
-        <f t="shared" si="0"/>
-        <v>22500</v>
-      </c>
-      <c r="F9" s="11">
-        <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="G9" s="11">
-        <f t="shared" si="0"/>
-        <v>17500</v>
-      </c>
-      <c r="H9" s="11">
-        <f t="shared" si="0"/>
-        <v>15000</v>
+      <c r="E9" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>18.75</v>
+      </c>
+      <c r="F9" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="G9" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>14.583333333333332</v>
+      </c>
+      <c r="H9" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>12.499999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1990,25 +1994,25 @@
       <c r="C10" s="9">
         <v>29000</v>
       </c>
-      <c r="D10" s="21">
-        <f>C10/환율</f>
+      <c r="D10" s="12">
+        <f>원/환율</f>
         <v>24.166666666666668</v>
       </c>
-      <c r="E10" s="11">
-        <f t="shared" si="0"/>
-        <v>26100</v>
-      </c>
-      <c r="F10" s="11">
-        <f t="shared" si="0"/>
-        <v>23200</v>
-      </c>
-      <c r="G10" s="11">
-        <f t="shared" si="0"/>
-        <v>20300</v>
-      </c>
-      <c r="H10" s="11">
-        <f t="shared" si="0"/>
-        <v>17400</v>
+      <c r="E10" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>21.75</v>
+      </c>
+      <c r="F10" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>19.333333333333336</v>
+      </c>
+      <c r="G10" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>16.916666666666668</v>
+      </c>
+      <c r="H10" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>14.5</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -2021,25 +2025,25 @@
       <c r="C11" s="9">
         <v>23000</v>
       </c>
-      <c r="D11" s="21">
-        <f>C11/환율</f>
+      <c r="D11" s="12">
+        <f>원/환율</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="E11" s="11">
-        <f t="shared" si="0"/>
-        <v>20700</v>
-      </c>
-      <c r="F11" s="11">
-        <f t="shared" si="0"/>
-        <v>18400</v>
-      </c>
-      <c r="G11" s="11">
-        <f t="shared" si="0"/>
-        <v>16099.999999999998</v>
-      </c>
-      <c r="H11" s="11">
-        <f t="shared" si="0"/>
-        <v>13800</v>
+      <c r="E11" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>17.25</v>
+      </c>
+      <c r="F11" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>15.333333333333336</v>
+      </c>
+      <c r="G11" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>13.416666666666666</v>
+      </c>
+      <c r="H11" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>11.5</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -2052,25 +2056,25 @@
       <c r="C12" s="9">
         <v>31000</v>
       </c>
-      <c r="D12" s="21">
-        <f>C12/환율</f>
+      <c r="D12" s="12">
+        <f>원/환율</f>
         <v>25.833333333333332</v>
       </c>
-      <c r="E12" s="11">
-        <f t="shared" si="0"/>
-        <v>27900</v>
-      </c>
-      <c r="F12" s="11">
-        <f t="shared" si="0"/>
-        <v>24800</v>
-      </c>
-      <c r="G12" s="11">
-        <f t="shared" si="0"/>
-        <v>21700</v>
-      </c>
-      <c r="H12" s="11">
-        <f t="shared" si="0"/>
-        <v>18600</v>
+      <c r="E12" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>23.25</v>
+      </c>
+      <c r="F12" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>20.666666666666668</v>
+      </c>
+      <c r="G12" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>18.083333333333332</v>
+      </c>
+      <c r="H12" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>15.499999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -2083,25 +2087,25 @@
       <c r="C13" s="9">
         <v>35000</v>
       </c>
-      <c r="D13" s="21">
-        <f>C13/환율</f>
+      <c r="D13" s="12">
+        <f>원/환율</f>
         <v>29.166666666666668</v>
       </c>
-      <c r="E13" s="11">
-        <f t="shared" si="0"/>
-        <v>31500</v>
-      </c>
-      <c r="F13" s="11">
-        <f t="shared" si="0"/>
-        <v>28000</v>
-      </c>
-      <c r="G13" s="11">
-        <f t="shared" si="0"/>
-        <v>24500</v>
-      </c>
-      <c r="H13" s="11">
-        <f t="shared" si="0"/>
-        <v>21000</v>
+      <c r="E13" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>26.25</v>
+      </c>
+      <c r="F13" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>23.333333333333336</v>
+      </c>
+      <c r="G13" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>20.416666666666668</v>
+      </c>
+      <c r="H13" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>17.5</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -2114,25 +2118,25 @@
       <c r="C14" s="9">
         <v>19000</v>
       </c>
-      <c r="D14" s="21">
-        <f>C14/환율</f>
+      <c r="D14" s="12">
+        <f>원/환율</f>
         <v>15.833333333333334</v>
       </c>
-      <c r="E14" s="11">
-        <f t="shared" si="0"/>
-        <v>17100</v>
-      </c>
-      <c r="F14" s="11">
-        <f t="shared" si="0"/>
-        <v>15200</v>
-      </c>
-      <c r="G14" s="11">
-        <f t="shared" si="0"/>
-        <v>13300</v>
-      </c>
-      <c r="H14" s="11">
-        <f t="shared" si="0"/>
-        <v>11400</v>
+      <c r="E14" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>14.25</v>
+      </c>
+      <c r="F14" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>12.666666666666668</v>
+      </c>
+      <c r="G14" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>11.083333333333334</v>
+      </c>
+      <c r="H14" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>9.5</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -2145,25 +2149,25 @@
       <c r="C15" s="9">
         <v>22000</v>
       </c>
-      <c r="D15" s="21">
-        <f>C15/환율</f>
+      <c r="D15" s="12">
+        <f>원/환율</f>
         <v>18.333333333333332</v>
       </c>
-      <c r="E15" s="11">
-        <f t="shared" si="0"/>
-        <v>19800</v>
-      </c>
-      <c r="F15" s="11">
-        <f t="shared" si="0"/>
-        <v>17600</v>
-      </c>
-      <c r="G15" s="11">
-        <f t="shared" si="0"/>
-        <v>15399.999999999998</v>
-      </c>
-      <c r="H15" s="11">
-        <f t="shared" si="0"/>
-        <v>13200</v>
+      <c r="E15" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>16.5</v>
+      </c>
+      <c r="F15" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>14.666666666666666</v>
+      </c>
+      <c r="G15" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>12.833333333333332</v>
+      </c>
+      <c r="H15" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>10.999999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -2176,25 +2180,25 @@
       <c r="C16" s="9">
         <v>55000</v>
       </c>
-      <c r="D16" s="21">
-        <f>C16/환율</f>
+      <c r="D16" s="12">
+        <f>원/환율</f>
         <v>45.833333333333336</v>
       </c>
-      <c r="E16" s="11">
-        <f t="shared" si="0"/>
-        <v>49500</v>
-      </c>
-      <c r="F16" s="11">
-        <f t="shared" si="0"/>
-        <v>44000</v>
-      </c>
-      <c r="G16" s="11">
-        <f t="shared" si="0"/>
-        <v>38500</v>
-      </c>
-      <c r="H16" s="11">
-        <f t="shared" si="0"/>
-        <v>33000</v>
+      <c r="E16" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>41.25</v>
+      </c>
+      <c r="F16" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>36.666666666666671</v>
+      </c>
+      <c r="G16" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>32.083333333333336</v>
+      </c>
+      <c r="H16" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>27.5</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -2207,25 +2211,25 @@
       <c r="C17" s="9">
         <v>65000</v>
       </c>
-      <c r="D17" s="21">
-        <f>C17/환율</f>
+      <c r="D17" s="12">
+        <f>원/환율</f>
         <v>54.166666666666664</v>
       </c>
-      <c r="E17" s="11">
-        <f t="shared" si="0"/>
-        <v>58500</v>
-      </c>
-      <c r="F17" s="11">
-        <f t="shared" si="0"/>
-        <v>52000</v>
-      </c>
-      <c r="G17" s="11">
-        <f t="shared" si="0"/>
-        <v>45500</v>
-      </c>
-      <c r="H17" s="11">
-        <f t="shared" si="0"/>
-        <v>39000</v>
+      <c r="E17" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>48.75</v>
+      </c>
+      <c r="F17" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>43.333333333333336</v>
+      </c>
+      <c r="G17" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>37.916666666666664</v>
+      </c>
+      <c r="H17" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>32.5</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -2238,25 +2242,25 @@
       <c r="C18" s="9">
         <v>78000</v>
       </c>
-      <c r="D18" s="21">
-        <f>C18/환율</f>
+      <c r="D18" s="12">
+        <f>원/환율</f>
         <v>65</v>
       </c>
-      <c r="E18" s="11">
-        <f t="shared" si="0"/>
-        <v>70200</v>
-      </c>
-      <c r="F18" s="11">
-        <f t="shared" si="0"/>
-        <v>62400</v>
-      </c>
-      <c r="G18" s="11">
-        <f t="shared" si="0"/>
-        <v>54600</v>
-      </c>
-      <c r="H18" s="11">
-        <f t="shared" si="0"/>
-        <v>46800</v>
+      <c r="E18" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>58.5</v>
+      </c>
+      <c r="F18" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>52</v>
+      </c>
+      <c r="G18" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>45.5</v>
+      </c>
+      <c r="H18" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -2269,25 +2273,25 @@
       <c r="C19" s="9">
         <v>88000</v>
       </c>
-      <c r="D19" s="21">
-        <f>C19/환율</f>
+      <c r="D19" s="12">
+        <f>원/환율</f>
         <v>73.333333333333329</v>
       </c>
-      <c r="E19" s="11">
-        <f t="shared" si="0"/>
-        <v>79200</v>
-      </c>
-      <c r="F19" s="11">
-        <f t="shared" si="0"/>
-        <v>70400</v>
-      </c>
-      <c r="G19" s="11">
-        <f t="shared" si="0"/>
-        <v>61599.999999999993</v>
-      </c>
-      <c r="H19" s="11">
-        <f t="shared" si="0"/>
-        <v>52800</v>
+      <c r="E19" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>66</v>
+      </c>
+      <c r="F19" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>58.666666666666664</v>
+      </c>
+      <c r="G19" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>51.333333333333329</v>
+      </c>
+      <c r="H19" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>43.999999999999993</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -2300,25 +2304,25 @@
       <c r="C20" s="9">
         <v>38000</v>
       </c>
-      <c r="D20" s="21">
-        <f>C20/환율</f>
+      <c r="D20" s="12">
+        <f>원/환율</f>
         <v>31.666666666666668</v>
       </c>
-      <c r="E20" s="11">
-        <f t="shared" si="0"/>
-        <v>34200</v>
-      </c>
-      <c r="F20" s="11">
-        <f t="shared" si="0"/>
-        <v>30400</v>
-      </c>
-      <c r="G20" s="11">
-        <f t="shared" si="0"/>
-        <v>26600</v>
-      </c>
-      <c r="H20" s="11">
-        <f t="shared" si="0"/>
-        <v>22800</v>
+      <c r="E20" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>28.5</v>
+      </c>
+      <c r="F20" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>25.333333333333336</v>
+      </c>
+      <c r="G20" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>22.166666666666668</v>
+      </c>
+      <c r="H20" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -2331,25 +2335,25 @@
       <c r="C21" s="9">
         <v>52000</v>
       </c>
-      <c r="D21" s="21">
-        <f>C21/환율</f>
+      <c r="D21" s="12">
+        <f>원/환율</f>
         <v>43.333333333333336</v>
       </c>
-      <c r="E21" s="11">
-        <f t="shared" si="0"/>
-        <v>46800</v>
-      </c>
-      <c r="F21" s="11">
-        <f t="shared" si="0"/>
-        <v>41600</v>
-      </c>
-      <c r="G21" s="11">
-        <f t="shared" si="0"/>
-        <v>36400</v>
-      </c>
-      <c r="H21" s="11">
-        <f t="shared" si="0"/>
-        <v>31200</v>
+      <c r="E21" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>39</v>
+      </c>
+      <c r="F21" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>34.666666666666671</v>
+      </c>
+      <c r="G21" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>30.333333333333332</v>
+      </c>
+      <c r="H21" s="21">
+        <f>달러*(1-할인율)</f>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2361,6 +2365,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>